--- a/biology/Zoologie/Bruant_fauve/Bruant_fauve.xlsx
+++ b/biology/Zoologie/Bruant_fauve/Bruant_fauve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Passerella iliaca
-Le Bruant fauve (Passerella iliaca) est une espèce de passereaux appartenant à la famille des Passerellidae. Cette espèce résulte de la division en quatre de l'espèce historique[1].
+Le Bruant fauve (Passerella iliaca) est une espèce de passereaux appartenant à la famille des Passerellidae. Cette espèce résulte de la division en quatre de l'espèce historique.
 </t>
         </is>
       </c>
@@ -512,17 +524,15 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite des études de Zink (1994), Zink &amp; Kessen (1999) et Zink &amp; Weckstein (2003), suivant l'avis de Handbook of the Birds of the World (volume 16), le Congrès ornithologique international (classification version 5.1, 2015) divise cette espèce en quatre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À la suite des études de Zink (1994), Zink &amp; Kessen (1999) et Zink &amp; Weckstein (2003), suivant l'avis de Handbook of the Birds of the World (volume 16), le Congrès ornithologique international (classification version 5.1, 2015) divise cette espèce en quatre :
 Passerella iliaca – Bruant fauve (article ci-contre)
 Passerella unalaschcensis – Bruant fuligineux
 Passerella schistacea – Bruant ardoisé
-Passerella megarhyncha – Bruant à bec épais
-Liste des sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
-Passerella iliaca zaboria Oberholser, 1946 ; présente dans le nord-ouest et le centre de l'Alaska, à l'ouest du Canada ;
-Passerella iliaca iliaca (Merrem, 1786) ; centre et est du Canada.</t>
+Passerella megarhyncha – Bruant à bec épais</t>
         </is>
       </c>
     </row>
@@ -547,14 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il niche en Amérique du Nord du nord-ouest et du centre de l'Alaska à l'est du Canada[1].
-Il peuple les forêts de conifères et celles de feuillus à sous-bois denses et surtout les bosquets au bord des cours d'eau.
-</t>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
+Passerella iliaca zaboria Oberholser, 1946 ; présente dans le nord-ouest et le centre de l'Alaska, à l'ouest du Canada ;
+Passerella iliaca iliaca (Merrem, 1786) ; centre et est du Canada.</t>
         </is>
       </c>
     </row>
@@ -579,12 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mensurations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bruant fauve mesure environ 18 cm de longueur.
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il niche en Amérique du Nord du nord-ouest et du centre de l'Alaska à l'est du Canada.
+Il peuple les forêts de conifères et celles de feuillus à sous-bois denses et surtout les bosquets au bord des cours d'eau.
 </t>
         </is>
       </c>
@@ -610,10 +629,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Mensurations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bruant fauve mesure environ 18 cm de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bruant_fauve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruant_fauve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit entre autres d'arthropodes, de diptères, de lépidoptères, de coléoptères etc.
 </t>
